--- a/ipay.xlsx
+++ b/ipay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="recode" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="230">
   <si>
     <t>mps</t>
   </si>
@@ -733,21 +733,6 @@
     <t>poss 风控中的冻结，解冻</t>
   </si>
   <si>
-    <t>FrozenLogController
-frozenLog-sqlmap.xml
-冻结金额接口：
-com.pay.acc.service.account.impl.FrozenAmountServiceImpl
-com.pay.app.controller.external.ExternalBalanceController</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelServiceImpl
-记账规则添加sql,科目服务吗对应关系
-AccountingServiceImpl
- applicationContext-accounting-fi.xml   添加新天记账规则bean
-  applicationContext-accountingMapping.xml根据记账规则中的dealCode映射ma的dealType, PayForEnum 中进行枚举
-</t>
-  </si>
-  <si>
     <t>会员账户-企业-基本结算账户</t>
   </si>
   <si>
@@ -883,6 +868,32 @@
 code值对应记账code（deal_code）
 DEAL_CODE    记账code（对应deal表deal_code,加dealid为唯一）
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrozenLogController
+frozenLog-sqlmap.xml
+冻结金额接口：
+com.pay.acc.service.account.impl.FrozenAmountServiceImpl
+com.pay.app.controller.external.ExternalBalanceController
+修改
+payforenum类
+DealTypeEnum类 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChannelServiceImpl
+记账规则添加sql,科目服务吗对应关系
+AccountingServiceImpl
+ applicationContext-accounting-fi.xml   添加新天记账规则bean
+  applicationContext-accountingMapping.xml根据记账规则中的dealCode映射ma的dealType, PayForEnum 中进行枚举
+本地\opt\pay\config\inf\notification jms 消息通知服务地址修改
+</t>
+  </si>
+  <si>
+    <t>同一个service中更新多次更新同一张表的同一个字段会出现死锁
+冻结解冻时候：
+1.修改t_acct表中的冻结金额，修改更新时间
+2.记账服务也更新t_acct表 也修改更新时间
+结果就产生死锁</t>
   </si>
 </sst>
 </file>
@@ -971,7 +982,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1362,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,11 +1420,11 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
@@ -1476,11 +1490,11 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="16" t="s">
@@ -1530,7 +1544,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1541,7 +1555,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="165">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1554,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -1565,26 +1579,26 @@
         <v>185</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60">
       <c r="A28" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>62</v>
       </c>
@@ -1628,7 +1642,7 @@
       <c r="A36" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1636,7 +1650,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="30"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="30">
@@ -1673,11 +1687,11 @@
       <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" spans="1:3" ht="60">
       <c r="A45" s="16" t="s">
@@ -1752,7 +1766,7 @@
         <v>22430103</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -1805,7 +1819,7 @@
         <v>2243010301</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1858,7 +1872,7 @@
         <v>2243010302</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1911,7 +1925,7 @@
         <v>2243010303</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1964,7 +1978,7 @@
         <v>2243010304</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2017,7 +2031,7 @@
         <v>2243010305</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2070,7 +2084,7 @@
         <v>2243010306</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2123,7 +2137,7 @@
         <v>2243010307</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2176,7 +2190,7 @@
         <v>2243010308</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2229,7 +2243,7 @@
         <v>2243010309</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2282,7 +2296,7 @@
         <v>2243010310</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2335,7 +2349,7 @@
         <v>2243010311</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2388,7 +2402,7 @@
         <v>2243010312</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2441,7 +2455,7 @@
         <v>2243010313</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2494,7 +2508,7 @@
         <v>22430103137</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2547,7 +2561,7 @@
         <v>22430103138</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2600,7 +2614,7 @@
         <v>2243010314</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2653,7 +2667,7 @@
         <v>2243010315</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2706,7 +2720,7 @@
         <v>2243010316</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2759,7 +2773,7 @@
         <v>2243010317</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2812,7 +2826,7 @@
         <v>2243010318</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2865,7 +2879,7 @@
         <v>2243010319</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2918,7 +2932,7 @@
         <v>2243010320</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2971,7 +2985,7 @@
         <v>2243010321</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3024,7 +3038,7 @@
         <v>2243010322</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3077,7 +3091,7 @@
         <v>2243010323</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3130,7 +3144,7 @@
         <v>2243010324</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3183,7 +3197,7 @@
         <v>2243010325</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3236,7 +3250,7 @@
         <v>2243010326</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3289,7 +3303,7 @@
         <v>2243010327</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3342,7 +3356,7 @@
         <v>2243010328</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3395,7 +3409,7 @@
         <v>2243010329</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3448,7 +3462,7 @@
         <v>2243010330</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3501,7 +3515,7 @@
         <v>2243010331</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3554,7 +3568,7 @@
         <v>2243010332</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3607,7 +3621,7 @@
         <v>2243010333</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3660,7 +3674,7 @@
         <v>2243010334</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3713,7 +3727,7 @@
         <v>2243010335</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3766,7 +3780,7 @@
         <v>2243010336</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4365,7 +4379,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15"/>
@@ -4745,10 +4759,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4806,10 +4820,10 @@
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1">
       <c r="A7" t="s">
@@ -4865,6 +4879,11 @@
       </c>
       <c r="B13" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="105">
+      <c r="A14" s="23" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/ipay.xlsx
+++ b/ipay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="recode" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="235">
   <si>
     <t>mps</t>
   </si>
@@ -98,11 +98,6 @@
   <si>
     <t>insert into fi.payment_channel values (9,'中银MIGS','中银MIGS',1,'system',sysdate,sysdate,'中银MIGS渠道');
 insert into inf.P_ORGANIZATION values ('10079001','中银MOTO',1,'中银MOTO',sysdate,0,1,'中银MOTO',0,1);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加渠道sql，同时要添加机构
-fi.payment_channel,inf.P_ORGANIZATION
-</t>
   </si>
   <si>
     <r>
@@ -529,9 +524,6 @@
 com.pay.gateway.client.TxncoreClientService 交易接口服务 </t>
   </si>
   <si>
-    <t>server-service.xml</t>
-  </si>
-  <si>
     <t>服务码接口</t>
   </si>
   <si>
@@ -555,33 +547,6 @@
   </si>
   <si>
     <t>cashu  测试登录</t>
-  </si>
-  <si>
-    <t>cashU 测试wsdl
-https://sandbox.cashu.com/secure/payment.wsdl
-cashU 生产wsdl
-https://secure.cashu.com/payment.wsdl
-退款post请求地址;
-测试URL: https://sandbox.cashu.com/refund/refund
-生产 URL: https://www.cashu.com/refund/refund
-1.请求支付 guide3 wsdl
-2.查询状态 guide2
-3.查询时间区间交易report guide2   
-https://sandbox.cashu.com/secure/MerchantServices.wsdl
-Live: https://secure.cashu.com/MerchantServices.wsdl
-4.退款 http post 请求 guide4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 地址：https://sandbox.cashu.com/Merchants/en/login
-Merchant id 666123
-password  ipay123456
-cashU service 中的地址配置
-return url :http://zhangj.ipaylinks.com/cashu/CheckReturn
-Notification URL:http://zhangj.ipaylinks.com/cashu/Notice
-sorry url :http://zhangj.ipaylinks.com/cashu/Sorry
-101.231.135.180
-callback/channelCallbackController 
-http://zhangj.ipaylinks.com/callback/channelCallback.htm?orgCode=10077001</t>
   </si>
   <si>
     <t>本地化支付渠道</t>
@@ -894,6 +859,82 @@
 1.修改t_acct表中的冻结金额，修改更新时间
 2.记账服务也更新t_acct表 也修改更新时间
 结果就产生死锁</t>
+  </si>
+  <si>
+    <t>cashU 测试wsdl
+https://sandbox.cashu.com/secure/payment.wsdl
+cashU 生产wsdl
+https://secure.cashu.com/payment.wsdl
+退款post请求地址;
+测试URL: https://sandbox.cashu.com/refund/refund
+生产 URL: https://www.cashu.com/refund/refund
+1.请求支付 guide3 wsdl
+2.查询状态 guide2
+3.查询时间区间交易report guide2   
+https://sandbox.cashu.com/secure/MerchantServices.wsdl
+Live: https://secure.cashu.com/MerchantServices.wsdl
+4.退款 http post 请求 guide4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 地址：https://sandbox.cashu.com/Merchants/en/login
+Merchant id 666123
+password  ipay123456
+cashU service 中的地址配置
+return url :http://zhangj.ipaylinks.com/cashu/CheckReturn
+Notification URL:http://zhangj.ipaylinks.com/cashu/Notice
+sorry url :http://zhangj.ipaylinks.com/cashu/Sorry
+101.231.135.180
+callback/channelCallbackController 
+http://zhangj.ipaylinks.com/callback/channelCallback.htm?orgCode=10077001
+支付测试  name： COYYgW972759744@cashUcard.com
+                      pwd:X6yqM7N133
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对应的deal_code
+103
+104
+105
+106
+202
+300
+301
+302
+503
+514
+</t>
+  </si>
+  <si>
+    <t>server-service.xml
+SerCode</t>
+  </si>
+  <si>
+    <t>核心调用渠道退款</t>
+  </si>
+  <si>
+    <t>渠道下单</t>
+  </si>
+  <si>
+    <t>ChannelServiceImpl  调用前置完成支付</t>
+  </si>
+  <si>
+    <t>RefundExecHandler     doRefund()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加渠道sql，同时要添加机构
+fi.payment_channel,inf.P_ORGANIZATION
+ChannelItemOrgCodeEnum
+MOCK("00000000", "MOCK"), 
+ BOCS("10076001", "中银卡司"),
+ BOCM("10079001", "中银MOTO"),
+ BOCI("10080001", "中银MIGS"),
+ BOC("10003001", "中国银行"),
+ ABC("10002001", "农业银行"),
+ CREDORAX("10075001","Credorax"),
+ ADYEN("10077001","Adyen"),
+ BELTO("10077002","Belto"),
+ CASHU("10077003","Cashu"),
+</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1032,6 +1073,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1374,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1389,68 +1436,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="330">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="75">
       <c r="A7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>139</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1490,11 +1537,11 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="16" t="s">
@@ -1543,91 +1590,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45">
-      <c r="A24" s="26" t="s">
-        <v>184</v>
+    <row r="24" spans="1:3" ht="210">
+      <c r="A24" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="165">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="120">
       <c r="A26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="180">
       <c r="A27" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60">
       <c r="A28" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="25"/>
+      <c r="A31" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="27"/>
       <c r="C31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="105">
       <c r="A32" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="105">
       <c r="A33" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="60">
       <c r="A34" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45">
@@ -1635,38 +1682,38 @@
         <v>17</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45">
       <c r="A36" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="31"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="30">
       <c r="A38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
       <c r="A39" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1675,57 +1722,70 @@
     <row r="41" spans="1:3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" s="22"/>
+      <c r="A43" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-    </row>
-    <row r="45" spans="1:3" ht="60">
-      <c r="A45" s="16" t="s">
+      <c r="A44" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+    </row>
+    <row r="46" spans="1:3" ht="60">
+      <c r="A46" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="240">
+      <c r="A47" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="225">
-      <c r="A46" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="165">
-      <c r="A47" s="16" t="s">
+      <c r="B47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="165">
+      <c r="A48" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="90">
+      <c r="A49" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="90">
-      <c r="A48" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1794,7 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="B36:B37"/>
   </mergeCells>
   <hyperlinks>
@@ -1766,7 +1826,7 @@
         <v>22430103</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -1819,7 +1879,7 @@
         <v>2243010301</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1872,7 +1932,7 @@
         <v>2243010302</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1925,7 +1985,7 @@
         <v>2243010303</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1978,7 +2038,7 @@
         <v>2243010304</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2031,7 +2091,7 @@
         <v>2243010305</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2084,7 +2144,7 @@
         <v>2243010306</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2137,7 +2197,7 @@
         <v>2243010307</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2190,7 +2250,7 @@
         <v>2243010308</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2243,7 +2303,7 @@
         <v>2243010309</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2296,7 +2356,7 @@
         <v>2243010310</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2349,7 +2409,7 @@
         <v>2243010311</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2402,7 +2462,7 @@
         <v>2243010312</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2455,7 +2515,7 @@
         <v>2243010313</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2508,7 +2568,7 @@
         <v>22430103137</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2561,7 +2621,7 @@
         <v>22430103138</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2614,7 +2674,7 @@
         <v>2243010314</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2667,7 +2727,7 @@
         <v>2243010315</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2720,7 +2780,7 @@
         <v>2243010316</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2773,7 +2833,7 @@
         <v>2243010317</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2826,7 +2886,7 @@
         <v>2243010318</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2879,7 +2939,7 @@
         <v>2243010319</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2932,7 +2992,7 @@
         <v>2243010320</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2985,7 +3045,7 @@
         <v>2243010321</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3038,7 +3098,7 @@
         <v>2243010322</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3091,7 +3151,7 @@
         <v>2243010323</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3144,7 +3204,7 @@
         <v>2243010324</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3197,7 +3257,7 @@
         <v>2243010325</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3250,7 +3310,7 @@
         <v>2243010326</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3303,7 +3363,7 @@
         <v>2243010327</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3356,7 +3416,7 @@
         <v>2243010328</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3409,7 +3469,7 @@
         <v>2243010329</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3462,7 +3522,7 @@
         <v>2243010330</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3515,7 +3575,7 @@
         <v>2243010331</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3568,7 +3628,7 @@
         <v>2243010332</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3621,7 +3681,7 @@
         <v>2243010333</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3674,7 +3734,7 @@
         <v>2243010334</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3727,7 +3787,7 @@
         <v>2243010335</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3780,7 +3840,7 @@
         <v>2243010336</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3848,10 +3908,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3859,13 +3919,13 @@
         <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3873,13 +3933,13 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3887,7 +3947,7 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -3898,7 +3958,7 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -3917,7 +3977,7 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7">
         <v>34</v>
@@ -3928,7 +3988,7 @@
         <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C8">
         <v>34</v>
@@ -3939,7 +3999,7 @@
         <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9">
         <v>34</v>
@@ -3950,7 +4010,7 @@
         <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10">
         <v>34</v>
@@ -3961,7 +4021,7 @@
         <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>34</v>
@@ -3972,7 +4032,7 @@
         <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <v>34</v>
@@ -3983,7 +4043,7 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -3994,7 +4054,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>101</v>
@@ -4005,7 +4065,7 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>102</v>
@@ -4048,7 +4108,7 @@
         <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -4059,7 +4119,7 @@
         <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21">
         <v>201</v>
@@ -4070,7 +4130,7 @@
         <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22">
         <v>202</v>
@@ -4081,7 +4141,7 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C23">
         <v>203</v>
@@ -4092,7 +4152,7 @@
         <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C24">
         <v>204</v>
@@ -4111,7 +4171,7 @@
         <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C26">
         <v>300</v>
@@ -4122,7 +4182,7 @@
         <v>801</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C27">
         <v>300</v>
@@ -4149,7 +4209,7 @@
         <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C30">
         <v>500</v>
@@ -4160,7 +4220,7 @@
         <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C31">
         <v>501</v>
@@ -4171,7 +4231,7 @@
         <v>502</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>502</v>
@@ -4182,7 +4242,7 @@
         <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C33">
         <v>503</v>
@@ -4193,7 +4253,7 @@
         <v>504</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34">
         <v>504</v>
@@ -4204,7 +4264,7 @@
         <v>505</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <v>505</v>
@@ -4215,7 +4275,7 @@
         <v>506</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C36">
         <v>506</v>
@@ -4226,7 +4286,7 @@
         <v>508</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37">
         <v>508</v>
@@ -4237,7 +4297,7 @@
         <v>509</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C38">
         <v>509</v>
@@ -4248,7 +4308,7 @@
         <v>510</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C39">
         <v>510</v>
@@ -4259,7 +4319,7 @@
         <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C40">
         <v>512</v>
@@ -4270,7 +4330,7 @@
         <v>513</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C41">
         <v>513</v>
@@ -4281,7 +4341,7 @@
         <v>514</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>514</v>
@@ -4292,7 +4352,7 @@
         <v>515</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C43">
         <v>515</v>
@@ -4303,7 +4363,7 @@
         <v>600</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C44">
         <v>600</v>
@@ -4314,7 +4374,7 @@
         <v>601</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C45">
         <v>601</v>
@@ -4333,7 +4393,7 @@
         <v>700</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C47">
         <v>700</v>
@@ -4360,10 +4420,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4376,10 +4436,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15"/>
@@ -4387,182 +4447,186 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="15" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4" ht="180">
       <c r="A2">
         <v>34</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>200</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>201</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>202</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>203</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>204</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>205</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>300</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>301</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>302</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>500</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4570,10 +4634,10 @@
         <v>501</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4581,10 +4645,10 @@
         <v>502</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4592,10 +4656,10 @@
         <v>503</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4603,10 +4667,10 @@
         <v>504</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
         <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4614,10 +4678,10 @@
         <v>505</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4625,10 +4689,10 @@
         <v>506</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4636,10 +4700,10 @@
         <v>508</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4647,10 +4711,10 @@
         <v>509</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
         <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4658,10 +4722,10 @@
         <v>510</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4669,10 +4733,10 @@
         <v>512</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
         <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4680,10 +4744,10 @@
         <v>513</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4691,10 +4755,10 @@
         <v>514</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
         <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4702,10 +4766,10 @@
         <v>515</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
         <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4713,10 +4777,10 @@
         <v>600</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4724,10 +4788,10 @@
         <v>601</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4735,10 +4799,10 @@
         <v>604</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
         <v>129</v>
-      </c>
-      <c r="C32" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4746,10 +4810,10 @@
         <v>700</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
         <v>131</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4761,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4798,10 +4862,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -4815,75 +4879,75 @@
     </row>
     <row r="6" spans="1:8" ht="165.75" thickBot="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="105">
       <c r="A14" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4910,7 +4974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4920,10 +4986,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4947,26 +5013,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ipay.xlsx
+++ b/ipay.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="239">
   <si>
     <t>mps</t>
   </si>
@@ -146,13 +146,6 @@
     <t>记账规则</t>
   </si>
   <si>
-    <t xml:space="preserve">/fi-accounting/src/main/java/com/pay/txncore/handler/reconciliation/ReconciliationHandler
-applicationContext-service.xml
-/fi-accounting/src/main/resources/context/applicationContext-service.xml   添加机构对账分录
-reconciliationAccountingServiceMap
-</t>
-  </si>
-  <si>
     <t>poss,核心</t>
   </si>
   <si>
@@ -915,26 +908,46 @@
     <t>渠道下单</t>
   </si>
   <si>
-    <t>ChannelServiceImpl  调用前置完成支付</t>
-  </si>
-  <si>
     <t>RefundExecHandler     doRefund()</t>
   </si>
   <si>
-    <t xml:space="preserve">添加渠道sql，同时要添加机构
-fi.payment_channel,inf.P_ORGANIZATION
+    <t>/fi-accounting/src/main/java/com/pay/txncore/handler/reconciliation/ReconciliationHandler
+applicationContext-service.xml
+/fi-accounting/src/main/resources/context/applicationContext-service.xml   添加机构对账分录
+reconciliationAccountingServiceMap
+applicationContext-service.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.添加渠道sql，同时要添加机构fi.payment_channel ,inf.P_ORGANIZATION 
+2.ChannelItemOrgCodeEnum (渠道对应的枚举类)
+3.渠道对账添加对账单解析文件*.grovy文件，数据库inf.FILE_CODE_MAPPING  表添加记录
+    ReconciliationHandler 对账handler
+    com.pay.txncore.service.impl.ChannelServiceImpl类下的
+    reconciliationRnTx方法修改获取渠道机构对应的汇率
+4.applicationContext-service.xml(渠道记账规则添加)
+5.poss项目修改insertReconcileImportRecordBatch （生成对应渠道的批次号 修改）
+相关枚举类：
+ChannelItemPriceStrategyEnum
 ChannelItemOrgCodeEnum
-MOCK("00000000", "MOCK"), 
- BOCS("10076001", "中银卡司"),
- BOCM("10079001", "中银MOTO"),
- BOCI("10080001", "中银MIGS"),
- BOC("10003001", "中国银行"),
- ABC("10002001", "农业银行"),
- CREDORAX("10075001","Credorax"),
- ADYEN("10077001","Adyen"),
- BELTO("10077002","Belto"),
- CASHU("10077003","Cashu"),
 </t>
+  </si>
+  <si>
+    <t>com.pay.txncore.service.impl.ChannelServiceImpl  调用前置完成支付</t>
+  </si>
+  <si>
+    <t>渠道订单查询</t>
+  </si>
+  <si>
+    <t>30129 channelOrderQueryHandler    findByCriteria
+/fi-channel/bin/src/main/resources/sqlmap/fi/mapping/CHANNEL_ORDER.xml</t>
+  </si>
+  <si>
+    <t>收银台支付页面：</t>
+  </si>
+  <si>
+    <t>/fi-website/src/main/webapp/html/cashier/embedded/cashier_en.html
+fi-payment-servlet.xml
+OnlineChannelPaymentController</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,6 +1104,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1421,83 +1440,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="119.42578125" customWidth="1"/>
-    <col min="3" max="3" width="136.7109375" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" customWidth="1"/>
+    <col min="3" max="3" width="121.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="330">
       <c r="A1" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="75">
       <c r="A7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1537,11 +1556,11 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="16" t="s">
@@ -1591,20 +1610,20 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="210">
-      <c r="A24" s="28" t="s">
-        <v>180</v>
+      <c r="A24" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="165">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:3" ht="180">
+      <c r="A25" s="31"/>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>20</v>
@@ -1612,69 +1631,69 @@
     </row>
     <row r="26" spans="1:3" ht="120">
       <c r="A26" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="180">
       <c r="A27" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="60">
       <c r="A28" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="29"/>
       <c r="C31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="105">
       <c r="A32" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="105">
       <c r="A33" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="60">
       <c r="A34" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45">
@@ -1682,38 +1701,38 @@
         <v>17</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45">
       <c r="A36" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="33"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="30">
       <c r="A38" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30">
       <c r="A39" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1724,68 +1743,87 @@
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-    </row>
-    <row r="46" spans="1:3" ht="60">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45">
       <c r="A46" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="26"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:3" ht="60">
+      <c r="A49" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="20" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="240">
+      <c r="A50" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="240">
-      <c r="A47" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="B50" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="165">
-      <c r="A48" s="16" t="s">
+      <c r="C50" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="165">
+      <c r="A51" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="90">
-      <c r="A49" s="16" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="90">
+      <c r="A52" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1832,7 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="B36:B37"/>
   </mergeCells>
   <hyperlinks>
@@ -1826,7 +1864,7 @@
         <v>22430103</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -1879,7 +1917,7 @@
         <v>2243010301</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1932,7 +1970,7 @@
         <v>2243010302</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1985,7 +2023,7 @@
         <v>2243010303</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2038,7 +2076,7 @@
         <v>2243010304</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2091,7 +2129,7 @@
         <v>2243010305</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2144,7 +2182,7 @@
         <v>2243010306</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2197,7 +2235,7 @@
         <v>2243010307</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2250,7 +2288,7 @@
         <v>2243010308</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2303,7 +2341,7 @@
         <v>2243010309</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2356,7 +2394,7 @@
         <v>2243010310</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2409,7 +2447,7 @@
         <v>2243010311</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2462,7 +2500,7 @@
         <v>2243010312</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2515,7 +2553,7 @@
         <v>2243010313</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2568,7 +2606,7 @@
         <v>22430103137</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2621,7 +2659,7 @@
         <v>22430103138</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2674,7 +2712,7 @@
         <v>2243010314</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2727,7 +2765,7 @@
         <v>2243010315</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2780,7 +2818,7 @@
         <v>2243010316</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2833,7 +2871,7 @@
         <v>2243010317</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2886,7 +2924,7 @@
         <v>2243010318</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2939,7 +2977,7 @@
         <v>2243010319</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2992,7 +3030,7 @@
         <v>2243010320</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3045,7 +3083,7 @@
         <v>2243010321</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3098,7 +3136,7 @@
         <v>2243010322</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3151,7 +3189,7 @@
         <v>2243010323</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3204,7 +3242,7 @@
         <v>2243010324</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3257,7 +3295,7 @@
         <v>2243010325</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3310,7 +3348,7 @@
         <v>2243010326</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3363,7 +3401,7 @@
         <v>2243010327</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3416,7 +3454,7 @@
         <v>2243010328</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3469,7 +3507,7 @@
         <v>2243010329</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3522,7 +3560,7 @@
         <v>2243010330</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3575,7 +3613,7 @@
         <v>2243010331</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3628,7 +3666,7 @@
         <v>2243010332</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3681,7 +3719,7 @@
         <v>2243010333</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3734,7 +3772,7 @@
         <v>2243010334</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3787,7 +3825,7 @@
         <v>2243010335</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3840,7 +3878,7 @@
         <v>2243010336</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3908,10 +3946,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3919,13 +3957,13 @@
         <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3933,13 +3971,13 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3947,7 +3985,7 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -3958,7 +3996,7 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -3977,7 +4015,7 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>34</v>
@@ -3988,7 +4026,7 @@
         <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>34</v>
@@ -3999,7 +4037,7 @@
         <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>34</v>
@@ -4010,7 +4048,7 @@
         <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>34</v>
@@ -4021,7 +4059,7 @@
         <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>34</v>
@@ -4032,7 +4070,7 @@
         <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>34</v>
@@ -4043,7 +4081,7 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -4054,7 +4092,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14">
         <v>101</v>
@@ -4065,7 +4103,7 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15">
         <v>102</v>
@@ -4108,7 +4146,7 @@
         <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -4119,7 +4157,7 @@
         <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>201</v>
@@ -4130,7 +4168,7 @@
         <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22">
         <v>202</v>
@@ -4141,7 +4179,7 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23">
         <v>203</v>
@@ -4152,7 +4190,7 @@
         <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24">
         <v>204</v>
@@ -4171,7 +4209,7 @@
         <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26">
         <v>300</v>
@@ -4182,7 +4220,7 @@
         <v>801</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27">
         <v>300</v>
@@ -4209,7 +4247,7 @@
         <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30">
         <v>500</v>
@@ -4220,7 +4258,7 @@
         <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31">
         <v>501</v>
@@ -4231,7 +4269,7 @@
         <v>502</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32">
         <v>502</v>
@@ -4242,7 +4280,7 @@
         <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>503</v>
@@ -4253,7 +4291,7 @@
         <v>504</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34">
         <v>504</v>
@@ -4264,7 +4302,7 @@
         <v>505</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35">
         <v>505</v>
@@ -4275,7 +4313,7 @@
         <v>506</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>506</v>
@@ -4286,7 +4324,7 @@
         <v>508</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37">
         <v>508</v>
@@ -4297,7 +4335,7 @@
         <v>509</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38">
         <v>509</v>
@@ -4308,7 +4346,7 @@
         <v>510</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39">
         <v>510</v>
@@ -4319,7 +4357,7 @@
         <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40">
         <v>512</v>
@@ -4330,7 +4368,7 @@
         <v>513</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41">
         <v>513</v>
@@ -4341,7 +4379,7 @@
         <v>514</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42">
         <v>514</v>
@@ -4352,7 +4390,7 @@
         <v>515</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43">
         <v>515</v>
@@ -4363,7 +4401,7 @@
         <v>600</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44">
         <v>600</v>
@@ -4374,7 +4412,7 @@
         <v>601</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45">
         <v>601</v>
@@ -4393,7 +4431,7 @@
         <v>700</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47">
         <v>700</v>
@@ -4420,10 +4458,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4455,10 +4493,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="180">
@@ -4466,13 +4504,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4480,10 +4518,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4491,10 +4529,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4502,10 +4540,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4513,10 +4551,10 @@
         <v>103</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4524,10 +4562,10 @@
         <v>200</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4535,10 +4573,10 @@
         <v>201</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4546,10 +4584,10 @@
         <v>202</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4557,10 +4595,10 @@
         <v>203</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4568,10 +4606,10 @@
         <v>204</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4579,10 +4617,10 @@
         <v>205</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4590,10 +4628,10 @@
         <v>300</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4601,10 +4639,10 @@
         <v>301</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4612,10 +4650,10 @@
         <v>302</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
         <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4623,10 +4661,10 @@
         <v>500</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4634,10 +4672,10 @@
         <v>501</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
         <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4645,10 +4683,10 @@
         <v>502</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4656,10 +4694,10 @@
         <v>503</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
         <v>106</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4667,10 +4705,10 @@
         <v>504</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4678,10 +4716,10 @@
         <v>505</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4689,10 +4727,10 @@
         <v>506</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4700,10 +4738,10 @@
         <v>508</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
         <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4711,10 +4749,10 @@
         <v>509</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
         <v>115</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4722,10 +4760,10 @@
         <v>510</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4733,10 +4771,10 @@
         <v>512</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4744,10 +4782,10 @@
         <v>513</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4755,10 +4793,10 @@
         <v>514</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
         <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4766,10 +4804,10 @@
         <v>515</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4777,10 +4815,10 @@
         <v>600</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4788,10 +4826,10 @@
         <v>601</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4799,10 +4837,10 @@
         <v>604</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
         <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4810,10 +4848,10 @@
         <v>700</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
         <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4862,10 +4900,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -4884,70 +4922,70 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="105">
       <c r="A14" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4986,10 +5024,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5013,26 +5051,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ipay.xlsx
+++ b/ipay.xlsx
@@ -14,15 +14,14 @@
     <sheet name="payforenum" sheetId="9" r:id="rId5"/>
     <sheet name="sql" sheetId="2" r:id="rId6"/>
     <sheet name="tools" sheetId="3" r:id="rId7"/>
-    <sheet name="未提交修改代码" sheetId="5" r:id="rId8"/>
-    <sheet name="问题" sheetId="6" r:id="rId9"/>
+    <sheet name="问题" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="249">
   <si>
     <t>mps</t>
   </si>
@@ -207,24 +206,6 @@
     <t xml:space="preserve">   将 chinese.lang 和chinese文件夹移除，重新打开PLSQL，变为英文版本，大功告成！</t>
   </si>
   <si>
-    <t>对账单下载渠道展示</t>
-  </si>
-  <si>
-    <t>对账单结果回显批次号添加</t>
-  </si>
-  <si>
-    <t>/fi-accounting/src/main/java/com/pay/txncore/handler/reconciliation/ReconciliationHand</t>
-  </si>
-  <si>
-    <t>/poss-war/src/main/java/com/pay/poss/controller/fi/query/ChannelOrderQueryController.java</t>
-  </si>
-  <si>
-    <t>moto，migs的grovy对账文件</t>
-  </si>
-  <si>
-    <t>判断moto，migs渠道退款条件的完善</t>
-  </si>
-  <si>
     <t>ReconcileFileServiceController  (upload poss上传对账单)
 ReconciliationHandler 对账handler
 grovy解析文件解析渠道的对账单
@@ -828,16 +809,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">FrozenLogController
-frozenLog-sqlmap.xml
-冻结金额接口：
-com.pay.acc.service.account.impl.FrozenAmountServiceImpl
-com.pay.app.controller.external.ExternalBalanceController
-修改
-payforenum类
-DealTypeEnum类 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ChannelServiceImpl
 记账规则添加sql,科目服务吗对应关系
 AccountingServiceImpl
@@ -852,21 +823,6 @@
 1.修改t_acct表中的冻结金额，修改更新时间
 2.记账服务也更新t_acct表 也修改更新时间
 结果就产生死锁</t>
-  </si>
-  <si>
-    <t>cashU 测试wsdl
-https://sandbox.cashu.com/secure/payment.wsdl
-cashU 生产wsdl
-https://secure.cashu.com/payment.wsdl
-退款post请求地址;
-测试URL: https://sandbox.cashu.com/refund/refund
-生产 URL: https://www.cashu.com/refund/refund
-1.请求支付 guide3 wsdl
-2.查询状态 guide2
-3.查询时间区间交易report guide2   
-https://sandbox.cashu.com/secure/MerchantServices.wsdl
-Live: https://secure.cashu.com/MerchantServices.wsdl
-4.退款 http post 请求 guide4</t>
   </si>
   <si>
     <t xml:space="preserve"> 地址：https://sandbox.cashu.com/Merchants/en/login
@@ -918,6 +874,56 @@
 applicationContext-service.xml</t>
   </si>
   <si>
+    <t>渠道订单查询</t>
+  </si>
+  <si>
+    <t>30129 channelOrderQueryHandler    findByCriteria
+/fi-channel/bin/src/main/resources/sqlmap/fi/mapping/CHANNEL_ORDER.xml</t>
+  </si>
+  <si>
+    <t>收银台支付页面：</t>
+  </si>
+  <si>
+    <t>/fi-website/src/main/webapp/html/cashier/embedded/cashier_en.html
+fi-payment-servlet.xml
+OnlineChannelPaymentController</t>
+  </si>
+  <si>
+    <t>本地化支付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">callback部署在101.231.135.180 域名http://zhangj.ipaylinks.com
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashU 测试wsdl
+https://sandbox.cashu.com/secure/payment.wsdl
+cashU 生产wsdl
+https://secure.cashu.com/payment.wsdl
+退款post请求地址;
+测试URL: https://sandbox.cashu.com/refund/refund
+生产 URL: https://www.cashu.com/refund/refund
+1.请求支付 guide3 wsdl
+2.查询状态 guide2
+3.查询时间区间交易report guide2   
+https://sandbox.cashu.com/secure/MerchantServices.wsdl
+Live: https://secure.cashu.com/MerchantServices.wsdl
+4.退款 http post 请求 guide4
+回调地址：
+http://zhangj.ipaylinks.com/callback/checkReturn.do
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrozenLogController
+frozenLog-sqlmap.xml
+冻结金额接口：
+com.pay.poss.amountma.service.impl.FrozenLogServiceImpl
+com.pay.app.controller.external.ExternalBalanceController
+修改
+payforenum类
+DealTypeEnum类 </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.添加渠道sql，同时要添加机构fi.payment_channel ,inf.P_ORGANIZATION 
 2.ChannelItemOrgCodeEnum (渠道对应的枚举类)
 3.渠道对账添加对账单解析文件*.grovy文件，数据库inf.FILE_CODE_MAPPING  表添加记录
@@ -929,25 +935,89 @@
 相关枚举类：
 ChannelItemPriceStrategyEnum
 ChannelItemOrgCodeEnum
+对账poss入口
+com.pay.poss.controller.reconcile.ReconcileFileServiceController
 </t>
   </si>
   <si>
-    <t>com.pay.txncore.service.impl.ChannelServiceImpl  调用前置完成支付</t>
-  </si>
-  <si>
-    <t>渠道订单查询</t>
-  </si>
-  <si>
-    <t>30129 channelOrderQueryHandler    findByCriteria
-/fi-channel/bin/src/main/resources/sqlmap/fi/mapping/CHANNEL_ORDER.xml</t>
-  </si>
-  <si>
-    <t>收银台支付页面：</t>
-  </si>
-  <si>
-    <t>/fi-website/src/main/webapp/html/cashier/embedded/cashier_en.html
-fi-payment-servlet.xml
-OnlineChannelPaymentController</t>
+    <t>本地测试下单流程：
+核心 fi-txncore
+网关 fi-webgate
+渠道 fi-channel
+fi-website (收银台网关，http收银台跳转地址)
+测试下单
+gatewayTest  注意修改下单条件地址
+配置下单商户支付渠道前置
+需要修改的hessian文件
+\opt\pay\config\gateway\http-config.properties
+\opt\pay\hessian\hessian.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+添加支付paymentInfo信息</t>
+  </si>
+  <si>
+    <t>初步添加:
+PaymentChannelItem(添加mcc多余) 后期需要删除
+PaymentChannelItemDto  同上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改：
+ com.pay.txncore.service.impl.PaymentServiceImpl  ----&gt;   payByChannels
+</t>
+  </si>
+  <si>
+    <t>com.pay.txncore.service.impl.ChannelServiceImpl  调用前置完成支付 596
+com.pay.txncore.service.impl.PaymentServiceImpl
+com.pay.txncore.crosspay.handler.CrosspayCashierPayHandler  收银台下单入口
+queryChannels
+com.pay.channel.handler.ChannelQueryHandler  获取可用渠道</t>
+  </si>
+  <si>
+    <t>会员产品开通：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poss页面 ma模块enterprisemanager-servlet.xml
+</t>
+  </si>
+  <si>
+    <t>通道二级商户号管理：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fi-payment-channel-servlet.xml
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tostring 方法： ReflectionToStringBuilder</t>
+  </si>
+  <si>
+    <t>poss上传对账单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconcileFileUpload.jsp
+</t>
+  </si>
+  <si>
+    <t>拒付对账</t>
+  </si>
+  <si>
+    <t>com.pay.poss.controller.bounced.BouncedController
+context-bounced-servlet.xml</t>
+  </si>
+  <si>
+    <t>可视化git工具：
+https://download.tortoisegit.org/
+命令行git工具：
+https://git-scm.com/download/
+git仓库外网地址：http://180.168.145.74:8082/
+测试账号密码：
+testuser， 78Komfhy9nfh88
+测试账号私钥见附件：testuser_rsa, 把这个文件放在C:\Users\登录用户\.ssh 目录下面，这样以后就可以免密码访问了。
+Jenkins测试账号密码：
+http://180.168.145.74:8083/
+testuser, 99iMfh5nf4kn
+Git基于命令行的简单操作命令，见附件。
+Git网络知名教程：http://www.liaoxuefeng.com/</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1107,6 +1177,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1440,57 +1528,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="96.140625" customWidth="1"/>
-    <col min="3" max="3" width="121.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="330">
+    <row r="1" spans="1:3" ht="345">
       <c r="A1" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
@@ -1501,22 +1593,22 @@
     </row>
     <row r="7" spans="1:3" ht="75">
       <c r="A7" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1551,18 +1643,18 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" ht="30">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="16" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="180">
+    <row r="20" spans="1:4" ht="225">
       <c r="A20" s="16" t="s">
         <v>3</v>
       </c>
@@ -1581,262 +1673,324 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="210">
-      <c r="A24" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="1:4" ht="255">
+      <c r="A26" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="180">
-      <c r="A25" s="31"/>
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:4" ht="210">
+      <c r="A27" s="37"/>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="150">
+      <c r="A30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="195">
+      <c r="A31" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60">
+      <c r="A32" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="105">
+      <c r="A36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="120">
-      <c r="A26" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="180">
-      <c r="A27" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="60">
-      <c r="A28" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="7" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="105">
+      <c r="A37" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="60">
+      <c r="A38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="45">
+      <c r="A39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60">
+      <c r="A40" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="105">
-      <c r="A32" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="105">
-      <c r="A33" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60">
-      <c r="A34" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45">
-      <c r="A35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45">
-      <c r="A36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:3" ht="30">
-      <c r="A38" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="22"/>
+      <c r="B40" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="22"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="165">
+      <c r="A48" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="75">
+      <c r="A49" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30">
+      <c r="A50" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45">
+      <c r="A51" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="26"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" ht="60">
+      <c r="A54" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="285">
+      <c r="A55" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="16" t="s">
+      <c r="B55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="180">
+      <c r="A56" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="120">
+      <c r="A57" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="16" t="s">
+      <c r="B58" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30">
-      <c r="A45" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45">
-      <c r="A46" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="26"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-    </row>
-    <row r="49" spans="1:3" ht="60">
-      <c r="A49" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="240">
-      <c r="A50" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="165">
-      <c r="A51" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="90">
-      <c r="A52" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" display="2397031958@qq.com  adminA  12345678Z_x000a__x000a_"/>
+    <hyperlink ref="C35" r:id="rId1" display="2397031958@qq.com  adminA  12345678Z_x000a__x000a_"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1864,7 +2018,7 @@
         <v>22430103</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D1">
         <v>2</v>
@@ -1917,7 +2071,7 @@
         <v>2243010301</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1970,7 +2124,7 @@
         <v>2243010302</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2023,7 +2177,7 @@
         <v>2243010303</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2076,7 +2230,7 @@
         <v>2243010304</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2129,7 +2283,7 @@
         <v>2243010305</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2182,7 +2336,7 @@
         <v>2243010306</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2235,7 +2389,7 @@
         <v>2243010307</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2288,7 +2442,7 @@
         <v>2243010308</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2341,7 +2495,7 @@
         <v>2243010309</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2394,7 +2548,7 @@
         <v>2243010310</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2447,7 +2601,7 @@
         <v>2243010311</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2500,7 +2654,7 @@
         <v>2243010312</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2553,7 +2707,7 @@
         <v>2243010313</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2606,7 +2760,7 @@
         <v>22430103137</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2659,7 +2813,7 @@
         <v>22430103138</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2712,7 +2866,7 @@
         <v>2243010314</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2765,7 +2919,7 @@
         <v>2243010315</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2818,7 +2972,7 @@
         <v>2243010316</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2871,7 +3025,7 @@
         <v>2243010317</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2924,7 +3078,7 @@
         <v>2243010318</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2977,7 +3131,7 @@
         <v>2243010319</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3030,7 +3184,7 @@
         <v>2243010320</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -3083,7 +3237,7 @@
         <v>2243010321</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3136,7 +3290,7 @@
         <v>2243010322</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3189,7 +3343,7 @@
         <v>2243010323</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3242,7 +3396,7 @@
         <v>2243010324</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3295,7 +3449,7 @@
         <v>2243010325</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3348,7 +3502,7 @@
         <v>2243010326</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -3401,7 +3555,7 @@
         <v>2243010327</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -3454,7 +3608,7 @@
         <v>2243010328</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3507,7 +3661,7 @@
         <v>2243010329</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3560,7 +3714,7 @@
         <v>2243010330</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3613,7 +3767,7 @@
         <v>2243010331</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3666,7 +3820,7 @@
         <v>2243010332</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3719,7 +3873,7 @@
         <v>2243010333</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3772,7 +3926,7 @@
         <v>2243010334</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3825,7 +3979,7 @@
         <v>2243010335</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3878,7 +4032,7 @@
         <v>2243010336</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3946,10 +4100,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3957,13 +4111,13 @@
         <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3971,13 +4125,13 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3985,7 +4139,7 @@
         <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -3996,7 +4150,7 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -4015,7 +4169,7 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>34</v>
@@ -4026,7 +4180,7 @@
         <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>34</v>
@@ -4037,7 +4191,7 @@
         <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C9">
         <v>34</v>
@@ -4048,7 +4202,7 @@
         <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C10">
         <v>34</v>
@@ -4059,7 +4213,7 @@
         <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C11">
         <v>34</v>
@@ -4070,7 +4224,7 @@
         <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>34</v>
@@ -4081,7 +4235,7 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -4092,7 +4246,7 @@
         <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>101</v>
@@ -4103,7 +4257,7 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>102</v>
@@ -4146,7 +4300,7 @@
         <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -4157,7 +4311,7 @@
         <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>201</v>
@@ -4168,7 +4322,7 @@
         <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>202</v>
@@ -4179,7 +4333,7 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>203</v>
@@ -4190,7 +4344,7 @@
         <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>204</v>
@@ -4209,7 +4363,7 @@
         <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C26">
         <v>300</v>
@@ -4220,7 +4374,7 @@
         <v>801</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C27">
         <v>300</v>
@@ -4247,7 +4401,7 @@
         <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30">
         <v>500</v>
@@ -4258,7 +4412,7 @@
         <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C31">
         <v>501</v>
@@ -4269,7 +4423,7 @@
         <v>502</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C32">
         <v>502</v>
@@ -4280,7 +4434,7 @@
         <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C33">
         <v>503</v>
@@ -4291,7 +4445,7 @@
         <v>504</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C34">
         <v>504</v>
@@ -4302,7 +4456,7 @@
         <v>505</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C35">
         <v>505</v>
@@ -4313,7 +4467,7 @@
         <v>506</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C36">
         <v>506</v>
@@ -4324,7 +4478,7 @@
         <v>508</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <v>508</v>
@@ -4335,7 +4489,7 @@
         <v>509</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C38">
         <v>509</v>
@@ -4346,7 +4500,7 @@
         <v>510</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C39">
         <v>510</v>
@@ -4357,7 +4511,7 @@
         <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C40">
         <v>512</v>
@@ -4368,7 +4522,7 @@
         <v>513</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C41">
         <v>513</v>
@@ -4379,7 +4533,7 @@
         <v>514</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>514</v>
@@ -4390,7 +4544,7 @@
         <v>515</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>515</v>
@@ -4401,7 +4555,7 @@
         <v>600</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C44">
         <v>600</v>
@@ -4412,7 +4566,7 @@
         <v>601</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>601</v>
@@ -4431,7 +4585,7 @@
         <v>700</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C47">
         <v>700</v>
@@ -4458,10 +4612,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4493,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="180">
@@ -4504,13 +4658,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4518,10 +4672,10 @@
         <v>100</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4529,10 +4683,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4540,10 +4694,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4551,10 +4705,10 @@
         <v>103</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4562,10 +4716,10 @@
         <v>200</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4573,10 +4727,10 @@
         <v>201</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4584,10 +4738,10 @@
         <v>202</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4595,10 +4749,10 @@
         <v>203</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4606,10 +4760,10 @@
         <v>204</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4617,10 +4771,10 @@
         <v>205</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4628,10 +4782,10 @@
         <v>300</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4639,10 +4793,10 @@
         <v>301</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4650,10 +4804,10 @@
         <v>302</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4661,10 +4815,10 @@
         <v>500</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4672,10 +4826,10 @@
         <v>501</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4683,10 +4837,10 @@
         <v>502</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4694,10 +4848,10 @@
         <v>503</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4705,10 +4859,10 @@
         <v>504</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4716,10 +4870,10 @@
         <v>505</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4727,10 +4881,10 @@
         <v>506</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4738,10 +4892,10 @@
         <v>508</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4749,10 +4903,10 @@
         <v>509</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4760,10 +4914,10 @@
         <v>510</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4771,10 +4925,10 @@
         <v>512</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4782,10 +4936,10 @@
         <v>513</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4793,10 +4947,10 @@
         <v>514</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4804,10 +4958,10 @@
         <v>515</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4815,10 +4969,10 @@
         <v>600</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4826,10 +4980,10 @@
         <v>601</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4837,10 +4991,10 @@
         <v>604</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4848,10 +5002,10 @@
         <v>700</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4922,10 +5076,10 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickTop="1">
       <c r="A7" t="s">
@@ -4985,7 +5139,7 @@
     </row>
     <row r="14" spans="1:8" ht="105">
       <c r="A14" s="23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5037,49 +5191,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="141.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
